--- a/minuteSummary.xlsx
+++ b/minuteSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lynda.com\Data Analytics\Google Analytics Certificate\8-Capstone Project\BellaBeat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D838EEEC-3733-45F0-86E8-18BB9967A5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7B7077-97FC-4B58-BDBA-6BAC3B3A0A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,6 +63,30 @@
           </rPr>
           <t xml:space="preserve">
 This shows the count of people who have a record in the sleep value table at given times of day, throughout the whole month of this dataset</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{516A330A-AB44-435A-A4BF-5C154A53724C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ahmed Metwaly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Q4</t>
         </r>
       </text>
     </comment>
@@ -294,10 +318,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -762,15 +782,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC539F1-C337-4101-BB2A-66BD75DE37BB}">
-  <dimension ref="A1:B1441"/>
+  <dimension ref="A1:C1441"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -778,7 +798,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>0</v>
       </c>
@@ -786,7 +806,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>6.9444444444444447E-4</v>
       </c>
@@ -794,7 +814,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>1.3888888888888889E-3</v>
       </c>
@@ -802,7 +822,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>2.0833333333333333E-3</v>
       </c>
@@ -810,7 +830,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>2.7777777777777779E-3</v>
       </c>
@@ -818,7 +838,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>3.472222222222222E-3</v>
       </c>
@@ -826,7 +846,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>4.1666666666666666E-3</v>
       </c>
@@ -834,7 +854,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>4.8611111111111112E-3</v>
       </c>
@@ -842,7 +862,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>5.5555555555555558E-3</v>
       </c>
@@ -850,7 +870,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>6.2499999999999995E-3</v>
       </c>
@@ -858,7 +878,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>6.9444444444444441E-3</v>
       </c>
@@ -866,7 +886,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>7.6388888888888886E-3</v>
       </c>
@@ -874,7 +894,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>8.3333333333333332E-3</v>
       </c>
@@ -882,7 +902,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>9.0277777777777787E-3</v>
       </c>
@@ -890,7 +910,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>9.7222222222222224E-3</v>
       </c>

--- a/minuteSummary.xlsx
+++ b/minuteSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lynda.com\Data Analytics\Google Analytics Certificate\8-Capstone Project\BellaBeat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7B7077-97FC-4B58-BDBA-6BAC3B3A0A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8540BB98-751A-42AC-A744-85D829359B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="minuteNumericSummary" sheetId="1" r:id="rId1"/>
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -784,7 +784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC539F1-C337-4101-BB2A-66BD75DE37BB}">
   <dimension ref="A1:C1441"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -12689,7 +12689,7 @@
   <dimension ref="A1:M1441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/minuteSummary.xlsx
+++ b/minuteSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lynda.com\Data Analytics\Google Analytics Certificate\8-Capstone Project\BellaBeat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8540BB98-751A-42AC-A744-85D829359B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B27633-57F2-4AAF-AEA0-9D67FC7091EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="minuteNumericSummary" sheetId="1" r:id="rId1"/>
@@ -320,6 +320,9531 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number of sleeping minutes at different</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> times of day</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MinuteSleep!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>MinuteSleep!$A$2:$A$1441</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="1440"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9444444444444447E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3888888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0833333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7777777777777779E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.472222222222222E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1666666666666666E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8611111111111112E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.5555555555555558E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.2499999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.9444444444444441E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.6388888888888886E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.3333333333333332E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.0277777777777787E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.7222222222222224E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0416666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1111111111111112E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1805555555555555E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.3194444444444444E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.3888888888888888E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.4583333333333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5277777777777777E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5972222222222224E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.7361111111111112E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.8055555555555557E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.8749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.9444444444444445E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.013888888888889E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.0833333333333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.1527777777777781E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.2222222222222223E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.2916666666666669E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.361111111111111E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.4305555555555556E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.5694444444444447E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.6388888888888889E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.7083333333333334E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.7777777777777776E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.8472222222222222E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.9166666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.9861111111111113E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.0555555555555555E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.1944444444444449E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.2638888888888891E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.4027777777777775E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.4722222222222224E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.5416666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.6111111111111115E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.6805555555555557E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.7499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.8194444444444441E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.888888888888889E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.9583333333333331E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.027777777777778E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.0972222222222222E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.1666666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.2361111111111106E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.3055555555555562E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.3750000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.4444444444444446E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.5138888888888888E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.5833333333333337E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.6527777777777779E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.7222222222222221E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.7916666666666663E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.8611111111111112E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.9305555555555554E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.9999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.0694444444444452E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.1388888888888894E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.2083333333333336E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.2777777777777778E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.347222222222222E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.4166666666666669E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.486111111111111E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.6250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.6944444444444443E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.7638888888888885E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.8333333333333327E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.9027777777777783E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5.9722222222222225E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6.0416666666666667E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6.1111111111111116E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6.1805555555555558E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6.3194444444444442E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6.3888888888888884E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6.458333333333334E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.5277777777777782E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6.5972222222222224E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6.7361111111111108E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6.805555555555555E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6.8749999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6.9444444444444434E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>7.013888888888889E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>7.0833333333333331E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>7.1527777777777787E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>7.2222222222222229E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>7.2916666666666671E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>7.3611111111111113E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>7.4305555555555555E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>7.5694444444444439E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>7.6388888888888895E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>7.7083333333333337E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>7.7777777777777779E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>7.8472222222222221E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>7.9166666666666663E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>7.9861111111111105E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>8.0555555555555561E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>8.1250000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>8.1944444444444445E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>8.2638888888888887E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>8.4027777777777771E-2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>8.4722222222222213E-2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>8.5416666666666655E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>8.6111111111111124E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>8.6805555555555566E-2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>8.7500000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>8.819444444444445E-2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>8.8888888888888892E-2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>8.9583333333333334E-2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>9.0277777777777776E-2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>9.0972222222222218E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>9.1666666666666674E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>9.2361111111111116E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>9.3055555555555558E-2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>9.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>9.4444444444444442E-2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>9.5138888888888884E-2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>9.5833333333333326E-2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>9.6527777777777768E-2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>9.7222222222222224E-2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>9.7916666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>9.8611111111111108E-2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>9.930555555555555E-2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>9.9999999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.10069444444444443</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.1013888888888889</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.10208333333333335</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.10277777777777779</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.10347222222222223</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.10416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.10486111111111111</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.10555555555555556</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.10625</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.10694444444444444</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.1076388888888889</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.10833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.10902777777777778</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.10972222222222222</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.11041666666666666</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.1111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.11180555555555556</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.1125</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.11319444444444444</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.11388888888888889</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.11458333333333333</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.11527777777777777</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.11597222222222221</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.11666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.1173611111111111</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.11805555555555557</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.11875000000000001</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.11944444444444445</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.12013888888888889</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.12083333333333333</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.12152777777777778</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.12222222222222223</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.12291666666666667</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.12361111111111112</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.12430555555555556</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.12569444444444444</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.12638888888888888</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.12708333333333333</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.1277777777777778</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.12847222222222224</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.12916666666666668</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.12986111111111112</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.13055555555555556</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.13125000000000001</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.13194444444444445</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.13263888888888889</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.13333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.13402777777777777</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.13472222222222222</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.13541666666666666</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.1361111111111111</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.13680555555555554</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.13749999999999998</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.13819444444444443</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.1388888888888889</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.13958333333333334</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.14027777777777778</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.14097222222222222</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.14166666666666666</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.1423611111111111</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.14305555555555557</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.14375000000000002</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.14444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.1451388888888889</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.14583333333333334</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.14652777777777778</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.14722222222222223</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.14791666666666667</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.14861111111111111</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.14930555555555555</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.15069444444444444</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.15138888888888888</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.15208333333333332</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.15277777777777776</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.15347222222222223</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.15416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.15486111111111112</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.15555555555555556</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.15625</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.15694444444444444</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.15763888888888888</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.15833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.15902777777777777</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.15972222222222224</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.16041666666666668</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.16111111111111112</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.16180555555555556</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.16250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.16319444444444445</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.16388888888888889</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.16458333333333333</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.16527777777777777</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.16597222222222222</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.1673611111111111</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.16805555555555554</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.16874999999999998</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.16944444444444443</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.17013888888888887</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.17083333333333331</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.17152777777777775</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.17222222222222225</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.17291666666666669</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.17361111111111113</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.17430555555555557</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.17500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.17569444444444446</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.1763888888888889</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.17708333333333334</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0.17777777777777778</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0.17847222222222223</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0.17916666666666667</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0.17986111111111111</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0.18055555555555555</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0.18124999999999999</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0.18194444444444444</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0.18263888888888891</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0.18333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0.18402777777777779</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0.18472222222222223</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0.18541666666666667</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0.18611111111111112</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0.18680555555555556</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0.1875</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>0.18819444444444444</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>0.18888888888888888</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>0.18958333333333333</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0.19027777777777777</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>0.19097222222222221</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>0.19166666666666665</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>0.19236111111111112</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>0.19305555555555554</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>0.19375000000000001</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>0.19444444444444445</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>0.19513888888888889</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>0.19583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0.19652777777777777</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>0.19722222222222222</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>0.19791666666666666</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>0.1986111111111111</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>0.19930555555555554</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0.19999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>0.20069444444444443</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0.20138888888888887</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>0.20208333333333331</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>0.20277777777777781</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>0.20347222222222219</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>0.20416666666666669</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>0.20486111111111113</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>0.20555555555555557</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>0.20625000000000002</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>0.20694444444444446</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>0.2076388888888889</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>0.20833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>0.20902777777777778</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>0.20972222222222223</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>0.21041666666666667</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>0.21111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>0.21180555555555555</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>0.21249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>0.21319444444444444</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>0.21388888888888891</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>0.21458333333333335</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>0.21527777777777779</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>0.21597222222222223</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>0.21666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>0.21736111111111112</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>0.21805555555555556</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>0.21875</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>0.21944444444444444</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>0.22013888888888888</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>0.22083333333333333</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>0.22152777777777777</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>0.22222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>0.22291666666666665</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>0.22361111111111109</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>0.22430555555555556</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>0.22569444444444445</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>0.22638888888888889</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>0.22708333333333333</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>0.22777777777777777</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>0.22847222222222222</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>0.22916666666666666</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>0.2298611111111111</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>0.23055555555555554</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>0.23124999999999998</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>0.23194444444444443</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>0.23263888888888887</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>0.23333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>0.23402777777777781</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>0.23472222222222219</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>0.23541666666666669</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>0.23611111111111113</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>0.23680555555555557</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>0.23750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>0.23819444444444446</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>0.2388888888888889</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>0.23958333333333334</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>0.24027777777777778</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>0.24097222222222223</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>0.24166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>0.24236111111111111</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>0.24305555555555555</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>0.24374999999999999</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>0.24444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>0.24513888888888888</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>0.24583333333333335</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>0.24652777777777779</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>0.24722222222222223</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>0.24791666666666667</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>0.24861111111111112</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>0.24930555555555556</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>0.25069444444444444</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>0.25138888888888888</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>0.25208333333333333</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>0.25277777777777777</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>0.25347222222222221</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>0.25416666666666665</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>0.25486111111111109</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>0.25555555555555559</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>0.25625000000000003</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>0.25694444444444448</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>0.25763888888888892</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>0.25833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>0.2590277777777778</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>0.25972222222222224</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>0.26041666666666669</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>0.26111111111111113</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>0.26180555555555557</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>0.26250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>0.26319444444444445</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>0.2638888888888889</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>0.26458333333333334</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>0.26527777777777778</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>0.26597222222222222</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>0.26666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>0.2673611111111111</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>0.26805555555555555</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>0.26874999999999999</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>0.26944444444444443</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>0.27013888888888887</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>0.27083333333333331</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>0.27152777777777776</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>0.2722222222222222</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>0.27291666666666664</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>0.27361111111111108</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>0.27430555555555552</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>0.27499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>0.27569444444444446</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>0.27638888888888885</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>0.27708333333333335</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>0.27777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>0.27847222222222223</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>0.27916666666666667</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>0.27986111111111112</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>0.28055555555555556</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>0.28125</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>0.28194444444444444</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>0.28263888888888888</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>0.28333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>0.28402777777777777</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>0.28472222222222221</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>0.28541666666666665</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>0.28611111111111115</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>0.28680555555555554</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>0.28750000000000003</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>0.28819444444444448</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>0.28888888888888892</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>0.28958333333333336</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>0.2902777777777778</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>0.29097222222222224</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>0.29166666666666669</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>0.29236111111111113</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>0.29305555555555557</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>0.29375000000000001</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>0.29444444444444445</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>0.2951388888888889</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>0.29583333333333334</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>0.29652777777777778</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>0.29722222222222222</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>0.29791666666666666</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>0.2986111111111111</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>0.29930555555555555</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>0.30069444444444443</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>0.30138888888888887</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>0.30208333333333331</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>0.30277777777777776</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>0.3034722222222222</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>0.30416666666666664</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>0.30486111111111108</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>0.30555555555555552</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>0.30624999999999997</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>0.30694444444444441</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>0.30763888888888891</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>0.30833333333333335</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>0.30902777777777779</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>0.30972222222222223</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>0.31041666666666667</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>0.31111111111111112</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>0.31180555555555556</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>0.31319444444444444</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>0.31388888888888888</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>0.31458333333333333</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>0.31527777777777777</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>0.31597222222222221</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>0.31666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>0.31736111111111115</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>0.31805555555555554</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>0.31875000000000003</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>0.31944444444444448</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>0.32013888888888892</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>0.32083333333333336</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>0.3215277777777778</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>0.32222222222222224</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>0.32291666666666669</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>0.32361111111111113</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>0.32430555555555557</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>0.32569444444444445</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>0.3263888888888889</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>0.32708333333333334</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>0.32777777777777778</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>0.32847222222222222</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>0.32916666666666666</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>0.3298611111111111</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>0.33055555555555555</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>0.33124999999999999</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>0.33194444444444443</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>0.33263888888888887</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>0.33402777777777781</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>0.3347222222222222</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>0.3354166666666667</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>0.33611111111111108</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>0.33680555555555558</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>0.33749999999999997</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>0.33819444444444446</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>0.33888888888888885</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>0.33958333333333335</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>0.34027777777777773</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>0.34097222222222223</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>0.34166666666666662</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>0.34236111111111112</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>0.3430555555555555</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>0.34375</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>0.3444444444444445</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>0.34513888888888888</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>0.34583333333333338</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>0.34652777777777777</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>0.34722222222222227</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>0.34791666666666665</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>0.34861111111111115</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>0.34930555555555554</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>0.35000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>0.35069444444444442</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>0.35138888888888892</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>0.3520833333333333</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>0.3527777777777778</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>0.35347222222222219</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>0.35416666666666669</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>0.35486111111111113</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>0.35555555555555557</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>0.35625000000000001</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>0.35694444444444445</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>0.3576388888888889</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>0.35833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>0.35902777777777778</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>0.35972222222222222</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>0.36041666666666666</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>0.3611111111111111</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>0.36180555555555555</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>0.36249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>0.36319444444444443</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>0.36388888888888887</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>0.36458333333333331</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>0.36527777777777781</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>0.3659722222222222</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>0.3666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>0.36736111111111108</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>0.36805555555555558</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>0.36874999999999997</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>0.36944444444444446</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>0.37013888888888885</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>0.37083333333333335</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>0.37152777777777773</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>0.37222222222222223</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>0.37291666666666662</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>0.37361111111111112</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>0.3743055555555555</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>0.3756944444444445</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>0.37638888888888888</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>0.37708333333333338</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>0.37777777777777777</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>0.37847222222222227</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>0.37916666666666665</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>0.37986111111111115</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>0.38055555555555554</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>0.38125000000000003</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>0.38194444444444442</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>0.38263888888888892</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>0.3833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>0.3840277777777778</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>0.38472222222222219</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>0.38541666666666669</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>0.38611111111111113</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>0.38680555555555557</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>0.38750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>0.38819444444444445</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>0.3888888888888889</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>0.38958333333333334</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>0.39027777777777778</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>0.39097222222222222</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>0.39166666666666666</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>0.3923611111111111</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>0.39305555555555555</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>0.39374999999999999</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>0.39444444444444443</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>0.39513888888888887</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>0.39583333333333331</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>0.39652777777777781</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>0.3972222222222222</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>0.3979166666666667</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>0.39861111111111108</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>0.39930555555555558</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>0.39999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>0.40069444444444446</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>0.40138888888888885</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>0.40208333333333335</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>0.40277777777777773</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>0.40347222222222223</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>0.40416666666666662</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>0.40486111111111112</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>0.4055555555555555</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>0.40625</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>0.4069444444444445</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>0.40763888888888888</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>0.40833333333333338</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>0.40902777777777777</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>0.40972222222222227</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>0.41041666666666665</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>0.41111111111111115</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>0.41180555555555554</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>0.41250000000000003</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>0.41319444444444442</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>0.41388888888888892</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>0.4145833333333333</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>0.4152777777777778</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>0.41597222222222219</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>0.41736111111111113</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>0.41805555555555557</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>0.41875000000000001</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>0.41944444444444445</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>0.4201388888888889</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>0.42083333333333334</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>0.42152777777777778</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>0.42222222222222222</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>0.42291666666666666</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>0.4236111111111111</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>0.42430555555555555</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>0.42499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>0.42569444444444443</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>0.42638888888888887</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>0.42708333333333331</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>0.42777777777777781</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>0.4284722222222222</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>0.4291666666666667</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>0.42986111111111108</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>0.43055555555555558</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>0.43124999999999997</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>0.43194444444444446</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>0.43263888888888885</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>0.43333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>0.43402777777777773</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>0.43472222222222223</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>0.43541666666666662</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>0.43611111111111112</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>0.4368055555555555</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>0.4381944444444445</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>0.43888888888888888</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>0.43958333333333338</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>0.44027777777777777</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>0.44097222222222227</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>0.44166666666666665</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>0.44236111111111115</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>0.44305555555555554</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>0.44375000000000003</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>0.44444444444444442</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>0.44513888888888892</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>0.4458333333333333</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>0.4465277777777778</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>0.44722222222222219</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>0.44791666666666669</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>0.44861111111111113</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>0.44930555555555557</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>0.45069444444444445</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>0.4513888888888889</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>0.45208333333333334</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>0.45277777777777778</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>0.45347222222222222</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>0.45416666666666666</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>0.4548611111111111</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>0.45555555555555555</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>0.45624999999999999</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>0.45694444444444443</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>0.45763888888888887</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>0.45833333333333331</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>0.45902777777777781</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>0.4597222222222222</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>0.4604166666666667</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>0.46111111111111108</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>0.46180555555555558</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>0.46249999999999997</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>0.46319444444444446</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>0.46388888888888885</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>0.46458333333333335</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>0.46527777777777773</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>0.46597222222222223</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>0.46666666666666662</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>0.46736111111111112</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>0.4680555555555555</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>0.46875</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>0.4694444444444445</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>0.47013888888888888</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>0.47083333333333338</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>0.47152777777777777</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>0.47222222222222227</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>0.47291666666666665</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>0.47361111111111115</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>0.47430555555555554</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>0.47500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>0.47569444444444442</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>0.47638888888888892</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>0.4770833333333333</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>0.4777777777777778</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>0.47847222222222219</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>0.47916666666666669</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>0.47986111111111113</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>0.48055555555555557</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>0.48125000000000001</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>0.48194444444444445</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>0.4826388888888889</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>0.48333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>0.48402777777777778</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>0.48472222222222222</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>0.48541666666666666</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>0.4861111111111111</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>0.48680555555555555</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>0.48749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>0.48819444444444443</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>0.48888888888888887</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>0.48958333333333331</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>0.49027777777777781</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>0.4909722222222222</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>0.4916666666666667</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>0.49236111111111108</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>0.49305555555555558</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>0.49374999999999997</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>0.49444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>0.49513888888888885</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>0.49583333333333335</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>0.49652777777777773</c:v>
+                </c:pt>
+                <c:pt idx="716">
+                  <c:v>0.49722222222222223</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>0.49791666666666662</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>0.49861111111111112</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>0.4993055555555555</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>0.50069444444444444</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>0.50138888888888888</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>0.50208333333333333</c:v>
+                </c:pt>
+                <c:pt idx="724">
+                  <c:v>0.50277777777777777</c:v>
+                </c:pt>
+                <c:pt idx="725">
+                  <c:v>0.50347222222222221</c:v>
+                </c:pt>
+                <c:pt idx="726">
+                  <c:v>0.50416666666666665</c:v>
+                </c:pt>
+                <c:pt idx="727">
+                  <c:v>0.50486111111111109</c:v>
+                </c:pt>
+                <c:pt idx="728">
+                  <c:v>0.50555555555555554</c:v>
+                </c:pt>
+                <c:pt idx="729">
+                  <c:v>0.50624999999999998</c:v>
+                </c:pt>
+                <c:pt idx="730">
+                  <c:v>0.50694444444444442</c:v>
+                </c:pt>
+                <c:pt idx="731">
+                  <c:v>0.50763888888888886</c:v>
+                </c:pt>
+                <c:pt idx="732">
+                  <c:v>0.5083333333333333</c:v>
+                </c:pt>
+                <c:pt idx="733">
+                  <c:v>0.50902777777777775</c:v>
+                </c:pt>
+                <c:pt idx="734">
+                  <c:v>0.50972222222222219</c:v>
+                </c:pt>
+                <c:pt idx="735">
+                  <c:v>0.51041666666666663</c:v>
+                </c:pt>
+                <c:pt idx="736">
+                  <c:v>0.51111111111111118</c:v>
+                </c:pt>
+                <c:pt idx="737">
+                  <c:v>0.51180555555555551</c:v>
+                </c:pt>
+                <c:pt idx="738">
+                  <c:v>0.51250000000000007</c:v>
+                </c:pt>
+                <c:pt idx="739">
+                  <c:v>0.5131944444444444</c:v>
+                </c:pt>
+                <c:pt idx="740">
+                  <c:v>0.51388888888888895</c:v>
+                </c:pt>
+                <c:pt idx="741">
+                  <c:v>0.51458333333333328</c:v>
+                </c:pt>
+                <c:pt idx="742">
+                  <c:v>0.51527777777777783</c:v>
+                </c:pt>
+                <c:pt idx="743">
+                  <c:v>0.51597222222222217</c:v>
+                </c:pt>
+                <c:pt idx="744">
+                  <c:v>0.51666666666666672</c:v>
+                </c:pt>
+                <c:pt idx="745">
+                  <c:v>0.51736111111111105</c:v>
+                </c:pt>
+                <c:pt idx="746">
+                  <c:v>0.5180555555555556</c:v>
+                </c:pt>
+                <c:pt idx="747">
+                  <c:v>0.51874999999999993</c:v>
+                </c:pt>
+                <c:pt idx="748">
+                  <c:v>0.51944444444444449</c:v>
+                </c:pt>
+                <c:pt idx="749">
+                  <c:v>0.52013888888888882</c:v>
+                </c:pt>
+                <c:pt idx="750">
+                  <c:v>0.52083333333333337</c:v>
+                </c:pt>
+                <c:pt idx="751">
+                  <c:v>0.52152777777777781</c:v>
+                </c:pt>
+                <c:pt idx="752">
+                  <c:v>0.52222222222222225</c:v>
+                </c:pt>
+                <c:pt idx="753">
+                  <c:v>0.5229166666666667</c:v>
+                </c:pt>
+                <c:pt idx="754">
+                  <c:v>0.52361111111111114</c:v>
+                </c:pt>
+                <c:pt idx="755">
+                  <c:v>0.52430555555555558</c:v>
+                </c:pt>
+                <c:pt idx="756">
+                  <c:v>0.52500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="757">
+                  <c:v>0.52569444444444446</c:v>
+                </c:pt>
+                <c:pt idx="758">
+                  <c:v>0.52638888888888891</c:v>
+                </c:pt>
+                <c:pt idx="759">
+                  <c:v>0.52708333333333335</c:v>
+                </c:pt>
+                <c:pt idx="760">
+                  <c:v>0.52777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="761">
+                  <c:v>0.52847222222222223</c:v>
+                </c:pt>
+                <c:pt idx="762">
+                  <c:v>0.52916666666666667</c:v>
+                </c:pt>
+                <c:pt idx="763">
+                  <c:v>0.52986111111111112</c:v>
+                </c:pt>
+                <c:pt idx="764">
+                  <c:v>0.53055555555555556</c:v>
+                </c:pt>
+                <c:pt idx="765">
+                  <c:v>0.53125</c:v>
+                </c:pt>
+                <c:pt idx="766">
+                  <c:v>0.53194444444444444</c:v>
+                </c:pt>
+                <c:pt idx="767">
+                  <c:v>0.53263888888888888</c:v>
+                </c:pt>
+                <c:pt idx="768">
+                  <c:v>0.53333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="769">
+                  <c:v>0.53402777777777777</c:v>
+                </c:pt>
+                <c:pt idx="770">
+                  <c:v>0.53472222222222221</c:v>
+                </c:pt>
+                <c:pt idx="771">
+                  <c:v>0.53541666666666665</c:v>
+                </c:pt>
+                <c:pt idx="772">
+                  <c:v>0.53611111111111109</c:v>
+                </c:pt>
+                <c:pt idx="773">
+                  <c:v>0.53680555555555554</c:v>
+                </c:pt>
+                <c:pt idx="774">
+                  <c:v>0.53749999999999998</c:v>
+                </c:pt>
+                <c:pt idx="775">
+                  <c:v>0.53819444444444442</c:v>
+                </c:pt>
+                <c:pt idx="776">
+                  <c:v>0.53888888888888886</c:v>
+                </c:pt>
+                <c:pt idx="777">
+                  <c:v>0.5395833333333333</c:v>
+                </c:pt>
+                <c:pt idx="778">
+                  <c:v>0.54027777777777775</c:v>
+                </c:pt>
+                <c:pt idx="779">
+                  <c:v>0.54097222222222219</c:v>
+                </c:pt>
+                <c:pt idx="780">
+                  <c:v>0.54166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="781">
+                  <c:v>0.54236111111111118</c:v>
+                </c:pt>
+                <c:pt idx="782">
+                  <c:v>0.54305555555555551</c:v>
+                </c:pt>
+                <c:pt idx="783">
+                  <c:v>0.54375000000000007</c:v>
+                </c:pt>
+                <c:pt idx="784">
+                  <c:v>0.5444444444444444</c:v>
+                </c:pt>
+                <c:pt idx="785">
+                  <c:v>0.54513888888888895</c:v>
+                </c:pt>
+                <c:pt idx="786">
+                  <c:v>0.54583333333333328</c:v>
+                </c:pt>
+                <c:pt idx="787">
+                  <c:v>0.54652777777777783</c:v>
+                </c:pt>
+                <c:pt idx="788">
+                  <c:v>0.54722222222222217</c:v>
+                </c:pt>
+                <c:pt idx="789">
+                  <c:v>0.54791666666666672</c:v>
+                </c:pt>
+                <c:pt idx="790">
+                  <c:v>0.54861111111111105</c:v>
+                </c:pt>
+                <c:pt idx="791">
+                  <c:v>0.5493055555555556</c:v>
+                </c:pt>
+                <c:pt idx="792">
+                  <c:v>0.54999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="793">
+                  <c:v>0.55069444444444449</c:v>
+                </c:pt>
+                <c:pt idx="794">
+                  <c:v>0.55138888888888882</c:v>
+                </c:pt>
+                <c:pt idx="795">
+                  <c:v>0.55208333333333337</c:v>
+                </c:pt>
+                <c:pt idx="796">
+                  <c:v>0.55277777777777781</c:v>
+                </c:pt>
+                <c:pt idx="797">
+                  <c:v>0.55347222222222225</c:v>
+                </c:pt>
+                <c:pt idx="798">
+                  <c:v>0.5541666666666667</c:v>
+                </c:pt>
+                <c:pt idx="799">
+                  <c:v>0.55486111111111114</c:v>
+                </c:pt>
+                <c:pt idx="800">
+                  <c:v>0.55555555555555558</c:v>
+                </c:pt>
+                <c:pt idx="801">
+                  <c:v>0.55625000000000002</c:v>
+                </c:pt>
+                <c:pt idx="802">
+                  <c:v>0.55694444444444446</c:v>
+                </c:pt>
+                <c:pt idx="803">
+                  <c:v>0.55763888888888891</c:v>
+                </c:pt>
+                <c:pt idx="804">
+                  <c:v>0.55833333333333335</c:v>
+                </c:pt>
+                <c:pt idx="805">
+                  <c:v>0.55902777777777779</c:v>
+                </c:pt>
+                <c:pt idx="806">
+                  <c:v>0.55972222222222223</c:v>
+                </c:pt>
+                <c:pt idx="807">
+                  <c:v>0.56041666666666667</c:v>
+                </c:pt>
+                <c:pt idx="808">
+                  <c:v>0.56111111111111112</c:v>
+                </c:pt>
+                <c:pt idx="809">
+                  <c:v>0.56180555555555556</c:v>
+                </c:pt>
+                <c:pt idx="810">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="811">
+                  <c:v>0.56319444444444444</c:v>
+                </c:pt>
+                <c:pt idx="812">
+                  <c:v>0.56388888888888888</c:v>
+                </c:pt>
+                <c:pt idx="813">
+                  <c:v>0.56458333333333333</c:v>
+                </c:pt>
+                <c:pt idx="814">
+                  <c:v>0.56527777777777777</c:v>
+                </c:pt>
+                <c:pt idx="815">
+                  <c:v>0.56597222222222221</c:v>
+                </c:pt>
+                <c:pt idx="816">
+                  <c:v>0.56666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="817">
+                  <c:v>0.56736111111111109</c:v>
+                </c:pt>
+                <c:pt idx="818">
+                  <c:v>0.56805555555555554</c:v>
+                </c:pt>
+                <c:pt idx="819">
+                  <c:v>0.56874999999999998</c:v>
+                </c:pt>
+                <c:pt idx="820">
+                  <c:v>0.56944444444444442</c:v>
+                </c:pt>
+                <c:pt idx="821">
+                  <c:v>0.57013888888888886</c:v>
+                </c:pt>
+                <c:pt idx="822">
+                  <c:v>0.5708333333333333</c:v>
+                </c:pt>
+                <c:pt idx="823">
+                  <c:v>0.57152777777777775</c:v>
+                </c:pt>
+                <c:pt idx="824">
+                  <c:v>0.57222222222222219</c:v>
+                </c:pt>
+                <c:pt idx="825">
+                  <c:v>0.57291666666666663</c:v>
+                </c:pt>
+                <c:pt idx="826">
+                  <c:v>0.57361111111111118</c:v>
+                </c:pt>
+                <c:pt idx="827">
+                  <c:v>0.57430555555555551</c:v>
+                </c:pt>
+                <c:pt idx="828">
+                  <c:v>0.57500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="829">
+                  <c:v>0.5756944444444444</c:v>
+                </c:pt>
+                <c:pt idx="830">
+                  <c:v>0.57638888888888895</c:v>
+                </c:pt>
+                <c:pt idx="831">
+                  <c:v>0.57708333333333328</c:v>
+                </c:pt>
+                <c:pt idx="832">
+                  <c:v>0.57777777777777783</c:v>
+                </c:pt>
+                <c:pt idx="833">
+                  <c:v>0.57847222222222217</c:v>
+                </c:pt>
+                <c:pt idx="834">
+                  <c:v>0.57916666666666672</c:v>
+                </c:pt>
+                <c:pt idx="835">
+                  <c:v>0.57986111111111105</c:v>
+                </c:pt>
+                <c:pt idx="836">
+                  <c:v>0.5805555555555556</c:v>
+                </c:pt>
+                <c:pt idx="837">
+                  <c:v>0.58124999999999993</c:v>
+                </c:pt>
+                <c:pt idx="838">
+                  <c:v>0.58194444444444449</c:v>
+                </c:pt>
+                <c:pt idx="839">
+                  <c:v>0.58263888888888882</c:v>
+                </c:pt>
+                <c:pt idx="840">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="841">
+                  <c:v>0.58402777777777781</c:v>
+                </c:pt>
+                <c:pt idx="842">
+                  <c:v>0.58472222222222225</c:v>
+                </c:pt>
+                <c:pt idx="843">
+                  <c:v>0.5854166666666667</c:v>
+                </c:pt>
+                <c:pt idx="844">
+                  <c:v>0.58611111111111114</c:v>
+                </c:pt>
+                <c:pt idx="845">
+                  <c:v>0.58680555555555558</c:v>
+                </c:pt>
+                <c:pt idx="846">
+                  <c:v>0.58750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="847">
+                  <c:v>0.58819444444444446</c:v>
+                </c:pt>
+                <c:pt idx="848">
+                  <c:v>0.58888888888888891</c:v>
+                </c:pt>
+                <c:pt idx="849">
+                  <c:v>0.58958333333333335</c:v>
+                </c:pt>
+                <c:pt idx="850">
+                  <c:v>0.59027777777777779</c:v>
+                </c:pt>
+                <c:pt idx="851">
+                  <c:v>0.59097222222222223</c:v>
+                </c:pt>
+                <c:pt idx="852">
+                  <c:v>0.59166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="853">
+                  <c:v>0.59236111111111112</c:v>
+                </c:pt>
+                <c:pt idx="854">
+                  <c:v>0.59305555555555556</c:v>
+                </c:pt>
+                <c:pt idx="855">
+                  <c:v>0.59375</c:v>
+                </c:pt>
+                <c:pt idx="856">
+                  <c:v>0.59444444444444444</c:v>
+                </c:pt>
+                <c:pt idx="857">
+                  <c:v>0.59513888888888888</c:v>
+                </c:pt>
+                <c:pt idx="858">
+                  <c:v>0.59583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="859">
+                  <c:v>0.59652777777777777</c:v>
+                </c:pt>
+                <c:pt idx="860">
+                  <c:v>0.59722222222222221</c:v>
+                </c:pt>
+                <c:pt idx="861">
+                  <c:v>0.59791666666666665</c:v>
+                </c:pt>
+                <c:pt idx="862">
+                  <c:v>0.59861111111111109</c:v>
+                </c:pt>
+                <c:pt idx="863">
+                  <c:v>0.59930555555555554</c:v>
+                </c:pt>
+                <c:pt idx="864">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="865">
+                  <c:v>0.60069444444444442</c:v>
+                </c:pt>
+                <c:pt idx="866">
+                  <c:v>0.60138888888888886</c:v>
+                </c:pt>
+                <c:pt idx="867">
+                  <c:v>0.6020833333333333</c:v>
+                </c:pt>
+                <c:pt idx="868">
+                  <c:v>0.60277777777777775</c:v>
+                </c:pt>
+                <c:pt idx="869">
+                  <c:v>0.60347222222222219</c:v>
+                </c:pt>
+                <c:pt idx="870">
+                  <c:v>0.60416666666666663</c:v>
+                </c:pt>
+                <c:pt idx="871">
+                  <c:v>0.60486111111111118</c:v>
+                </c:pt>
+                <c:pt idx="872">
+                  <c:v>0.60555555555555551</c:v>
+                </c:pt>
+                <c:pt idx="873">
+                  <c:v>0.60625000000000007</c:v>
+                </c:pt>
+                <c:pt idx="874">
+                  <c:v>0.6069444444444444</c:v>
+                </c:pt>
+                <c:pt idx="875">
+                  <c:v>0.60763888888888895</c:v>
+                </c:pt>
+                <c:pt idx="876">
+                  <c:v>0.60833333333333328</c:v>
+                </c:pt>
+                <c:pt idx="877">
+                  <c:v>0.60902777777777783</c:v>
+                </c:pt>
+                <c:pt idx="878">
+                  <c:v>0.60972222222222217</c:v>
+                </c:pt>
+                <c:pt idx="879">
+                  <c:v>0.61041666666666672</c:v>
+                </c:pt>
+                <c:pt idx="880">
+                  <c:v>0.61111111111111105</c:v>
+                </c:pt>
+                <c:pt idx="881">
+                  <c:v>0.6118055555555556</c:v>
+                </c:pt>
+                <c:pt idx="882">
+                  <c:v>0.61249999999999993</c:v>
+                </c:pt>
+                <c:pt idx="883">
+                  <c:v>0.61319444444444449</c:v>
+                </c:pt>
+                <c:pt idx="884">
+                  <c:v>0.61388888888888882</c:v>
+                </c:pt>
+                <c:pt idx="885">
+                  <c:v>0.61458333333333337</c:v>
+                </c:pt>
+                <c:pt idx="886">
+                  <c:v>0.61527777777777781</c:v>
+                </c:pt>
+                <c:pt idx="887">
+                  <c:v>0.61597222222222225</c:v>
+                </c:pt>
+                <c:pt idx="888">
+                  <c:v>0.6166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="889">
+                  <c:v>0.61736111111111114</c:v>
+                </c:pt>
+                <c:pt idx="890">
+                  <c:v>0.61805555555555558</c:v>
+                </c:pt>
+                <c:pt idx="891">
+                  <c:v>0.61875000000000002</c:v>
+                </c:pt>
+                <c:pt idx="892">
+                  <c:v>0.61944444444444446</c:v>
+                </c:pt>
+                <c:pt idx="893">
+                  <c:v>0.62013888888888891</c:v>
+                </c:pt>
+                <c:pt idx="894">
+                  <c:v>0.62083333333333335</c:v>
+                </c:pt>
+                <c:pt idx="895">
+                  <c:v>0.62152777777777779</c:v>
+                </c:pt>
+                <c:pt idx="896">
+                  <c:v>0.62222222222222223</c:v>
+                </c:pt>
+                <c:pt idx="897">
+                  <c:v>0.62291666666666667</c:v>
+                </c:pt>
+                <c:pt idx="898">
+                  <c:v>0.62361111111111112</c:v>
+                </c:pt>
+                <c:pt idx="899">
+                  <c:v>0.62430555555555556</c:v>
+                </c:pt>
+                <c:pt idx="900">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="901">
+                  <c:v>0.62569444444444444</c:v>
+                </c:pt>
+                <c:pt idx="902">
+                  <c:v>0.62638888888888888</c:v>
+                </c:pt>
+                <c:pt idx="903">
+                  <c:v>0.62708333333333333</c:v>
+                </c:pt>
+                <c:pt idx="904">
+                  <c:v>0.62777777777777777</c:v>
+                </c:pt>
+                <c:pt idx="905">
+                  <c:v>0.62847222222222221</c:v>
+                </c:pt>
+                <c:pt idx="906">
+                  <c:v>0.62916666666666665</c:v>
+                </c:pt>
+                <c:pt idx="907">
+                  <c:v>0.62986111111111109</c:v>
+                </c:pt>
+                <c:pt idx="908">
+                  <c:v>0.63055555555555554</c:v>
+                </c:pt>
+                <c:pt idx="909">
+                  <c:v>0.63124999999999998</c:v>
+                </c:pt>
+                <c:pt idx="910">
+                  <c:v>0.63194444444444442</c:v>
+                </c:pt>
+                <c:pt idx="911">
+                  <c:v>0.63263888888888886</c:v>
+                </c:pt>
+                <c:pt idx="912">
+                  <c:v>0.6333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="913">
+                  <c:v>0.63402777777777775</c:v>
+                </c:pt>
+                <c:pt idx="914">
+                  <c:v>0.63472222222222219</c:v>
+                </c:pt>
+                <c:pt idx="915">
+                  <c:v>0.63541666666666663</c:v>
+                </c:pt>
+                <c:pt idx="916">
+                  <c:v>0.63611111111111118</c:v>
+                </c:pt>
+                <c:pt idx="917">
+                  <c:v>0.63680555555555551</c:v>
+                </c:pt>
+                <c:pt idx="918">
+                  <c:v>0.63750000000000007</c:v>
+                </c:pt>
+                <c:pt idx="919">
+                  <c:v>0.6381944444444444</c:v>
+                </c:pt>
+                <c:pt idx="920">
+                  <c:v>0.63888888888888895</c:v>
+                </c:pt>
+                <c:pt idx="921">
+                  <c:v>0.63958333333333328</c:v>
+                </c:pt>
+                <c:pt idx="922">
+                  <c:v>0.64027777777777783</c:v>
+                </c:pt>
+                <c:pt idx="923">
+                  <c:v>0.64097222222222217</c:v>
+                </c:pt>
+                <c:pt idx="924">
+                  <c:v>0.64166666666666672</c:v>
+                </c:pt>
+                <c:pt idx="925">
+                  <c:v>0.64236111111111105</c:v>
+                </c:pt>
+                <c:pt idx="926">
+                  <c:v>0.6430555555555556</c:v>
+                </c:pt>
+                <c:pt idx="927">
+                  <c:v>0.64374999999999993</c:v>
+                </c:pt>
+                <c:pt idx="928">
+                  <c:v>0.64444444444444449</c:v>
+                </c:pt>
+                <c:pt idx="929">
+                  <c:v>0.64513888888888882</c:v>
+                </c:pt>
+                <c:pt idx="930">
+                  <c:v>0.64583333333333337</c:v>
+                </c:pt>
+                <c:pt idx="931">
+                  <c:v>0.64652777777777781</c:v>
+                </c:pt>
+                <c:pt idx="932">
+                  <c:v>0.64722222222222225</c:v>
+                </c:pt>
+                <c:pt idx="933">
+                  <c:v>0.6479166666666667</c:v>
+                </c:pt>
+                <c:pt idx="934">
+                  <c:v>0.64861111111111114</c:v>
+                </c:pt>
+                <c:pt idx="935">
+                  <c:v>0.64930555555555558</c:v>
+                </c:pt>
+                <c:pt idx="936">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="937">
+                  <c:v>0.65069444444444446</c:v>
+                </c:pt>
+                <c:pt idx="938">
+                  <c:v>0.65138888888888891</c:v>
+                </c:pt>
+                <c:pt idx="939">
+                  <c:v>0.65208333333333335</c:v>
+                </c:pt>
+                <c:pt idx="940">
+                  <c:v>0.65277777777777779</c:v>
+                </c:pt>
+                <c:pt idx="941">
+                  <c:v>0.65347222222222223</c:v>
+                </c:pt>
+                <c:pt idx="942">
+                  <c:v>0.65416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="943">
+                  <c:v>0.65486111111111112</c:v>
+                </c:pt>
+                <c:pt idx="944">
+                  <c:v>0.65555555555555556</c:v>
+                </c:pt>
+                <c:pt idx="945">
+                  <c:v>0.65625</c:v>
+                </c:pt>
+                <c:pt idx="946">
+                  <c:v>0.65694444444444444</c:v>
+                </c:pt>
+                <c:pt idx="947">
+                  <c:v>0.65763888888888888</c:v>
+                </c:pt>
+                <c:pt idx="948">
+                  <c:v>0.65833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="949">
+                  <c:v>0.65902777777777777</c:v>
+                </c:pt>
+                <c:pt idx="950">
+                  <c:v>0.65972222222222221</c:v>
+                </c:pt>
+                <c:pt idx="951">
+                  <c:v>0.66041666666666665</c:v>
+                </c:pt>
+                <c:pt idx="952">
+                  <c:v>0.66111111111111109</c:v>
+                </c:pt>
+                <c:pt idx="953">
+                  <c:v>0.66180555555555554</c:v>
+                </c:pt>
+                <c:pt idx="954">
+                  <c:v>0.66249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="955">
+                  <c:v>0.66319444444444442</c:v>
+                </c:pt>
+                <c:pt idx="956">
+                  <c:v>0.66388888888888886</c:v>
+                </c:pt>
+                <c:pt idx="957">
+                  <c:v>0.6645833333333333</c:v>
+                </c:pt>
+                <c:pt idx="958">
+                  <c:v>0.66527777777777775</c:v>
+                </c:pt>
+                <c:pt idx="959">
+                  <c:v>0.66597222222222219</c:v>
+                </c:pt>
+                <c:pt idx="960">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="961">
+                  <c:v>0.66736111111111107</c:v>
+                </c:pt>
+                <c:pt idx="962">
+                  <c:v>0.66805555555555562</c:v>
+                </c:pt>
+                <c:pt idx="963">
+                  <c:v>0.66875000000000007</c:v>
+                </c:pt>
+                <c:pt idx="964">
+                  <c:v>0.6694444444444444</c:v>
+                </c:pt>
+                <c:pt idx="965">
+                  <c:v>0.67013888888888884</c:v>
+                </c:pt>
+                <c:pt idx="966">
+                  <c:v>0.67083333333333339</c:v>
+                </c:pt>
+                <c:pt idx="967">
+                  <c:v>0.67152777777777783</c:v>
+                </c:pt>
+                <c:pt idx="968">
+                  <c:v>0.67222222222222217</c:v>
+                </c:pt>
+                <c:pt idx="969">
+                  <c:v>0.67291666666666661</c:v>
+                </c:pt>
+                <c:pt idx="970">
+                  <c:v>0.67361111111111116</c:v>
+                </c:pt>
+                <c:pt idx="971">
+                  <c:v>0.6743055555555556</c:v>
+                </c:pt>
+                <c:pt idx="972">
+                  <c:v>0.67499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="973">
+                  <c:v>0.67569444444444438</c:v>
+                </c:pt>
+                <c:pt idx="974">
+                  <c:v>0.67638888888888893</c:v>
+                </c:pt>
+                <c:pt idx="975">
+                  <c:v>0.67708333333333337</c:v>
+                </c:pt>
+                <c:pt idx="976">
+                  <c:v>0.6777777777777777</c:v>
+                </c:pt>
+                <c:pt idx="977">
+                  <c:v>0.67847222222222225</c:v>
+                </c:pt>
+                <c:pt idx="978">
+                  <c:v>0.6791666666666667</c:v>
+                </c:pt>
+                <c:pt idx="979">
+                  <c:v>0.67986111111111114</c:v>
+                </c:pt>
+                <c:pt idx="980">
+                  <c:v>0.68055555555555547</c:v>
+                </c:pt>
+                <c:pt idx="981">
+                  <c:v>0.68125000000000002</c:v>
+                </c:pt>
+                <c:pt idx="982">
+                  <c:v>0.68194444444444446</c:v>
+                </c:pt>
+                <c:pt idx="983">
+                  <c:v>0.68263888888888891</c:v>
+                </c:pt>
+                <c:pt idx="984">
+                  <c:v>0.68333333333333324</c:v>
+                </c:pt>
+                <c:pt idx="985">
+                  <c:v>0.68402777777777779</c:v>
+                </c:pt>
+                <c:pt idx="986">
+                  <c:v>0.68472222222222223</c:v>
+                </c:pt>
+                <c:pt idx="987">
+                  <c:v>0.68541666666666667</c:v>
+                </c:pt>
+                <c:pt idx="988">
+                  <c:v>0.68611111111111101</c:v>
+                </c:pt>
+                <c:pt idx="989">
+                  <c:v>0.68680555555555556</c:v>
+                </c:pt>
+                <c:pt idx="990">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="991">
+                  <c:v>0.68819444444444444</c:v>
+                </c:pt>
+                <c:pt idx="992">
+                  <c:v>0.68888888888888899</c:v>
+                </c:pt>
+                <c:pt idx="993">
+                  <c:v>0.68958333333333333</c:v>
+                </c:pt>
+                <c:pt idx="994">
+                  <c:v>0.69027777777777777</c:v>
+                </c:pt>
+                <c:pt idx="995">
+                  <c:v>0.69097222222222221</c:v>
+                </c:pt>
+                <c:pt idx="996">
+                  <c:v>0.69166666666666676</c:v>
+                </c:pt>
+                <c:pt idx="997">
+                  <c:v>0.69236111111111109</c:v>
+                </c:pt>
+                <c:pt idx="998">
+                  <c:v>0.69305555555555554</c:v>
+                </c:pt>
+                <c:pt idx="999">
+                  <c:v>0.69374999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1000">
+                  <c:v>0.69444444444444453</c:v>
+                </c:pt>
+                <c:pt idx="1001">
+                  <c:v>0.69513888888888886</c:v>
+                </c:pt>
+                <c:pt idx="1002">
+                  <c:v>0.6958333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1003">
+                  <c:v>0.69652777777777775</c:v>
+                </c:pt>
+                <c:pt idx="1004">
+                  <c:v>0.6972222222222223</c:v>
+                </c:pt>
+                <c:pt idx="1005">
+                  <c:v>0.69791666666666663</c:v>
+                </c:pt>
+                <c:pt idx="1006">
+                  <c:v>0.69861111111111107</c:v>
+                </c:pt>
+                <c:pt idx="1007">
+                  <c:v>0.69930555555555562</c:v>
+                </c:pt>
+                <c:pt idx="1008">
+                  <c:v>0.70000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1009">
+                  <c:v>0.7006944444444444</c:v>
+                </c:pt>
+                <c:pt idx="1010">
+                  <c:v>0.70138888888888884</c:v>
+                </c:pt>
+                <c:pt idx="1011">
+                  <c:v>0.70208333333333339</c:v>
+                </c:pt>
+                <c:pt idx="1012">
+                  <c:v>0.70277777777777783</c:v>
+                </c:pt>
+                <c:pt idx="1013">
+                  <c:v>0.70347222222222217</c:v>
+                </c:pt>
+                <c:pt idx="1014">
+                  <c:v>0.70416666666666661</c:v>
+                </c:pt>
+                <c:pt idx="1015">
+                  <c:v>0.70486111111111116</c:v>
+                </c:pt>
+                <c:pt idx="1016">
+                  <c:v>0.7055555555555556</c:v>
+                </c:pt>
+                <c:pt idx="1017">
+                  <c:v>0.70624999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1018">
+                  <c:v>0.70694444444444438</c:v>
+                </c:pt>
+                <c:pt idx="1019">
+                  <c:v>0.70763888888888893</c:v>
+                </c:pt>
+                <c:pt idx="1020">
+                  <c:v>0.70833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="1021">
+                  <c:v>0.7090277777777777</c:v>
+                </c:pt>
+                <c:pt idx="1022">
+                  <c:v>0.70972222222222225</c:v>
+                </c:pt>
+                <c:pt idx="1023">
+                  <c:v>0.7104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="1024">
+                  <c:v>0.71111111111111114</c:v>
+                </c:pt>
+                <c:pt idx="1025">
+                  <c:v>0.71180555555555547</c:v>
+                </c:pt>
+                <c:pt idx="1026">
+                  <c:v>0.71250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1027">
+                  <c:v>0.71319444444444446</c:v>
+                </c:pt>
+                <c:pt idx="1028">
+                  <c:v>0.71388888888888891</c:v>
+                </c:pt>
+                <c:pt idx="1029">
+                  <c:v>0.71458333333333324</c:v>
+                </c:pt>
+                <c:pt idx="1030">
+                  <c:v>0.71527777777777779</c:v>
+                </c:pt>
+                <c:pt idx="1031">
+                  <c:v>0.71597222222222223</c:v>
+                </c:pt>
+                <c:pt idx="1032">
+                  <c:v>0.71666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1033">
+                  <c:v>0.71736111111111101</c:v>
+                </c:pt>
+                <c:pt idx="1034">
+                  <c:v>0.71805555555555556</c:v>
+                </c:pt>
+                <c:pt idx="1035">
+                  <c:v>0.71875</c:v>
+                </c:pt>
+                <c:pt idx="1036">
+                  <c:v>0.71944444444444444</c:v>
+                </c:pt>
+                <c:pt idx="1037">
+                  <c:v>0.72013888888888899</c:v>
+                </c:pt>
+                <c:pt idx="1038">
+                  <c:v>0.72083333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1039">
+                  <c:v>0.72152777777777777</c:v>
+                </c:pt>
+                <c:pt idx="1040">
+                  <c:v>0.72222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="1041">
+                  <c:v>0.72291666666666676</c:v>
+                </c:pt>
+                <c:pt idx="1042">
+                  <c:v>0.72361111111111109</c:v>
+                </c:pt>
+                <c:pt idx="1043">
+                  <c:v>0.72430555555555554</c:v>
+                </c:pt>
+                <c:pt idx="1044">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1045">
+                  <c:v>0.72569444444444453</c:v>
+                </c:pt>
+                <c:pt idx="1046">
+                  <c:v>0.72638888888888886</c:v>
+                </c:pt>
+                <c:pt idx="1047">
+                  <c:v>0.7270833333333333</c:v>
+                </c:pt>
+                <c:pt idx="1048">
+                  <c:v>0.72777777777777775</c:v>
+                </c:pt>
+                <c:pt idx="1049">
+                  <c:v>0.7284722222222223</c:v>
+                </c:pt>
+                <c:pt idx="1050">
+                  <c:v>0.72916666666666663</c:v>
+                </c:pt>
+                <c:pt idx="1051">
+                  <c:v>0.72986111111111107</c:v>
+                </c:pt>
+                <c:pt idx="1052">
+                  <c:v>0.73055555555555562</c:v>
+                </c:pt>
+                <c:pt idx="1053">
+                  <c:v>0.73125000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1054">
+                  <c:v>0.7319444444444444</c:v>
+                </c:pt>
+                <c:pt idx="1055">
+                  <c:v>0.73263888888888884</c:v>
+                </c:pt>
+                <c:pt idx="1056">
+                  <c:v>0.73333333333333339</c:v>
+                </c:pt>
+                <c:pt idx="1057">
+                  <c:v>0.73402777777777783</c:v>
+                </c:pt>
+                <c:pt idx="1058">
+                  <c:v>0.73472222222222217</c:v>
+                </c:pt>
+                <c:pt idx="1059">
+                  <c:v>0.73541666666666661</c:v>
+                </c:pt>
+                <c:pt idx="1060">
+                  <c:v>0.73611111111111116</c:v>
+                </c:pt>
+                <c:pt idx="1061">
+                  <c:v>0.7368055555555556</c:v>
+                </c:pt>
+                <c:pt idx="1062">
+                  <c:v>0.73749999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1063">
+                  <c:v>0.73819444444444438</c:v>
+                </c:pt>
+                <c:pt idx="1064">
+                  <c:v>0.73888888888888893</c:v>
+                </c:pt>
+                <c:pt idx="1065">
+                  <c:v>0.73958333333333337</c:v>
+                </c:pt>
+                <c:pt idx="1066">
+                  <c:v>0.7402777777777777</c:v>
+                </c:pt>
+                <c:pt idx="1067">
+                  <c:v>0.74097222222222225</c:v>
+                </c:pt>
+                <c:pt idx="1068">
+                  <c:v>0.7416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1069">
+                  <c:v>0.74236111111111114</c:v>
+                </c:pt>
+                <c:pt idx="1070">
+                  <c:v>0.74305555555555547</c:v>
+                </c:pt>
+                <c:pt idx="1071">
+                  <c:v>0.74375000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1072">
+                  <c:v>0.74444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="1073">
+                  <c:v>0.74513888888888891</c:v>
+                </c:pt>
+                <c:pt idx="1074">
+                  <c:v>0.74583333333333324</c:v>
+                </c:pt>
+                <c:pt idx="1075">
+                  <c:v>0.74652777777777779</c:v>
+                </c:pt>
+                <c:pt idx="1076">
+                  <c:v>0.74722222222222223</c:v>
+                </c:pt>
+                <c:pt idx="1077">
+                  <c:v>0.74791666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1078">
+                  <c:v>0.74861111111111101</c:v>
+                </c:pt>
+                <c:pt idx="1079">
+                  <c:v>0.74930555555555556</c:v>
+                </c:pt>
+                <c:pt idx="1080">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1081">
+                  <c:v>0.75069444444444444</c:v>
+                </c:pt>
+                <c:pt idx="1082">
+                  <c:v>0.75138888888888899</c:v>
+                </c:pt>
+                <c:pt idx="1083">
+                  <c:v>0.75208333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1084">
+                  <c:v>0.75277777777777777</c:v>
+                </c:pt>
+                <c:pt idx="1085">
+                  <c:v>0.75347222222222221</c:v>
+                </c:pt>
+                <c:pt idx="1086">
+                  <c:v>0.75416666666666676</c:v>
+                </c:pt>
+                <c:pt idx="1087">
+                  <c:v>0.75486111111111109</c:v>
+                </c:pt>
+                <c:pt idx="1088">
+                  <c:v>0.75555555555555554</c:v>
+                </c:pt>
+                <c:pt idx="1089">
+                  <c:v>0.75624999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1090">
+                  <c:v>0.75694444444444453</c:v>
+                </c:pt>
+                <c:pt idx="1091">
+                  <c:v>0.75763888888888886</c:v>
+                </c:pt>
+                <c:pt idx="1092">
+                  <c:v>0.7583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1093">
+                  <c:v>0.75902777777777775</c:v>
+                </c:pt>
+                <c:pt idx="1094">
+                  <c:v>0.7597222222222223</c:v>
+                </c:pt>
+                <c:pt idx="1095">
+                  <c:v>0.76041666666666663</c:v>
+                </c:pt>
+                <c:pt idx="1096">
+                  <c:v>0.76111111111111107</c:v>
+                </c:pt>
+                <c:pt idx="1097">
+                  <c:v>0.76180555555555562</c:v>
+                </c:pt>
+                <c:pt idx="1098">
+                  <c:v>0.76250000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1099">
+                  <c:v>0.7631944444444444</c:v>
+                </c:pt>
+                <c:pt idx="1100">
+                  <c:v>0.76388888888888884</c:v>
+                </c:pt>
+                <c:pt idx="1101">
+                  <c:v>0.76458333333333339</c:v>
+                </c:pt>
+                <c:pt idx="1102">
+                  <c:v>0.76527777777777783</c:v>
+                </c:pt>
+                <c:pt idx="1103">
+                  <c:v>0.76597222222222217</c:v>
+                </c:pt>
+                <c:pt idx="1104">
+                  <c:v>0.76666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="1105">
+                  <c:v>0.76736111111111116</c:v>
+                </c:pt>
+                <c:pt idx="1106">
+                  <c:v>0.7680555555555556</c:v>
+                </c:pt>
+                <c:pt idx="1107">
+                  <c:v>0.76874999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1108">
+                  <c:v>0.76944444444444438</c:v>
+                </c:pt>
+                <c:pt idx="1109">
+                  <c:v>0.77013888888888893</c:v>
+                </c:pt>
+                <c:pt idx="1110">
+                  <c:v>0.77083333333333337</c:v>
+                </c:pt>
+                <c:pt idx="1111">
+                  <c:v>0.7715277777777777</c:v>
+                </c:pt>
+                <c:pt idx="1112">
+                  <c:v>0.77222222222222225</c:v>
+                </c:pt>
+                <c:pt idx="1113">
+                  <c:v>0.7729166666666667</c:v>
+                </c:pt>
+                <c:pt idx="1114">
+                  <c:v>0.77361111111111114</c:v>
+                </c:pt>
+                <c:pt idx="1115">
+                  <c:v>0.77430555555555547</c:v>
+                </c:pt>
+                <c:pt idx="1116">
+                  <c:v>0.77500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1117">
+                  <c:v>0.77569444444444446</c:v>
+                </c:pt>
+                <c:pt idx="1118">
+                  <c:v>0.77638888888888891</c:v>
+                </c:pt>
+                <c:pt idx="1119">
+                  <c:v>0.77708333333333324</c:v>
+                </c:pt>
+                <c:pt idx="1120">
+                  <c:v>0.77777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="1121">
+                  <c:v>0.77847222222222223</c:v>
+                </c:pt>
+                <c:pt idx="1122">
+                  <c:v>0.77916666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1123">
+                  <c:v>0.77986111111111101</c:v>
+                </c:pt>
+                <c:pt idx="1124">
+                  <c:v>0.78055555555555556</c:v>
+                </c:pt>
+                <c:pt idx="1125">
+                  <c:v>0.78125</c:v>
+                </c:pt>
+                <c:pt idx="1126">
+                  <c:v>0.78194444444444444</c:v>
+                </c:pt>
+                <c:pt idx="1127">
+                  <c:v>0.78263888888888899</c:v>
+                </c:pt>
+                <c:pt idx="1128">
+                  <c:v>0.78333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1129">
+                  <c:v>0.78402777777777777</c:v>
+                </c:pt>
+                <c:pt idx="1130">
+                  <c:v>0.78472222222222221</c:v>
+                </c:pt>
+                <c:pt idx="1131">
+                  <c:v>0.78541666666666676</c:v>
+                </c:pt>
+                <c:pt idx="1132">
+                  <c:v>0.78611111111111109</c:v>
+                </c:pt>
+                <c:pt idx="1133">
+                  <c:v>0.78680555555555554</c:v>
+                </c:pt>
+                <c:pt idx="1134">
+                  <c:v>0.78749999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1135">
+                  <c:v>0.78819444444444453</c:v>
+                </c:pt>
+                <c:pt idx="1136">
+                  <c:v>0.78888888888888886</c:v>
+                </c:pt>
+                <c:pt idx="1137">
+                  <c:v>0.7895833333333333</c:v>
+                </c:pt>
+                <c:pt idx="1138">
+                  <c:v>0.79027777777777775</c:v>
+                </c:pt>
+                <c:pt idx="1139">
+                  <c:v>0.7909722222222223</c:v>
+                </c:pt>
+                <c:pt idx="1140">
+                  <c:v>0.79166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="1141">
+                  <c:v>0.79236111111111107</c:v>
+                </c:pt>
+                <c:pt idx="1142">
+                  <c:v>0.79305555555555562</c:v>
+                </c:pt>
+                <c:pt idx="1143">
+                  <c:v>0.79375000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1144">
+                  <c:v>0.7944444444444444</c:v>
+                </c:pt>
+                <c:pt idx="1145">
+                  <c:v>0.79513888888888884</c:v>
+                </c:pt>
+                <c:pt idx="1146">
+                  <c:v>0.79583333333333339</c:v>
+                </c:pt>
+                <c:pt idx="1147">
+                  <c:v>0.79652777777777783</c:v>
+                </c:pt>
+                <c:pt idx="1148">
+                  <c:v>0.79722222222222217</c:v>
+                </c:pt>
+                <c:pt idx="1149">
+                  <c:v>0.79791666666666661</c:v>
+                </c:pt>
+                <c:pt idx="1150">
+                  <c:v>0.79861111111111116</c:v>
+                </c:pt>
+                <c:pt idx="1151">
+                  <c:v>0.7993055555555556</c:v>
+                </c:pt>
+                <c:pt idx="1152">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1153">
+                  <c:v>0.80069444444444438</c:v>
+                </c:pt>
+                <c:pt idx="1154">
+                  <c:v>0.80138888888888893</c:v>
+                </c:pt>
+                <c:pt idx="1155">
+                  <c:v>0.80208333333333337</c:v>
+                </c:pt>
+                <c:pt idx="1156">
+                  <c:v>0.8027777777777777</c:v>
+                </c:pt>
+                <c:pt idx="1157">
+                  <c:v>0.80347222222222225</c:v>
+                </c:pt>
+                <c:pt idx="1158">
+                  <c:v>0.8041666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1159">
+                  <c:v>0.80486111111111114</c:v>
+                </c:pt>
+                <c:pt idx="1160">
+                  <c:v>0.80555555555555547</c:v>
+                </c:pt>
+                <c:pt idx="1161">
+                  <c:v>0.80625000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1162">
+                  <c:v>0.80694444444444446</c:v>
+                </c:pt>
+                <c:pt idx="1163">
+                  <c:v>0.80763888888888891</c:v>
+                </c:pt>
+                <c:pt idx="1164">
+                  <c:v>0.80833333333333324</c:v>
+                </c:pt>
+                <c:pt idx="1165">
+                  <c:v>0.80902777777777779</c:v>
+                </c:pt>
+                <c:pt idx="1166">
+                  <c:v>0.80972222222222223</c:v>
+                </c:pt>
+                <c:pt idx="1167">
+                  <c:v>0.81041666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1168">
+                  <c:v>0.81111111111111101</c:v>
+                </c:pt>
+                <c:pt idx="1169">
+                  <c:v>0.81180555555555556</c:v>
+                </c:pt>
+                <c:pt idx="1170">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="1171">
+                  <c:v>0.81319444444444444</c:v>
+                </c:pt>
+                <c:pt idx="1172">
+                  <c:v>0.81388888888888899</c:v>
+                </c:pt>
+                <c:pt idx="1173">
+                  <c:v>0.81458333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1174">
+                  <c:v>0.81527777777777777</c:v>
+                </c:pt>
+                <c:pt idx="1175">
+                  <c:v>0.81597222222222221</c:v>
+                </c:pt>
+                <c:pt idx="1176">
+                  <c:v>0.81666666666666676</c:v>
+                </c:pt>
+                <c:pt idx="1177">
+                  <c:v>0.81736111111111109</c:v>
+                </c:pt>
+                <c:pt idx="1178">
+                  <c:v>0.81805555555555554</c:v>
+                </c:pt>
+                <c:pt idx="1179">
+                  <c:v>0.81874999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1180">
+                  <c:v>0.81944444444444453</c:v>
+                </c:pt>
+                <c:pt idx="1181">
+                  <c:v>0.82013888888888886</c:v>
+                </c:pt>
+                <c:pt idx="1182">
+                  <c:v>0.8208333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1183">
+                  <c:v>0.82152777777777775</c:v>
+                </c:pt>
+                <c:pt idx="1184">
+                  <c:v>0.8222222222222223</c:v>
+                </c:pt>
+                <c:pt idx="1185">
+                  <c:v>0.82291666666666663</c:v>
+                </c:pt>
+                <c:pt idx="1186">
+                  <c:v>0.82361111111111107</c:v>
+                </c:pt>
+                <c:pt idx="1187">
+                  <c:v>0.82430555555555562</c:v>
+                </c:pt>
+                <c:pt idx="1188">
+                  <c:v>0.82500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1189">
+                  <c:v>0.8256944444444444</c:v>
+                </c:pt>
+                <c:pt idx="1190">
+                  <c:v>0.82638888888888884</c:v>
+                </c:pt>
+                <c:pt idx="1191">
+                  <c:v>0.82708333333333339</c:v>
+                </c:pt>
+                <c:pt idx="1192">
+                  <c:v>0.82777777777777783</c:v>
+                </c:pt>
+                <c:pt idx="1193">
+                  <c:v>0.82847222222222217</c:v>
+                </c:pt>
+                <c:pt idx="1194">
+                  <c:v>0.82916666666666661</c:v>
+                </c:pt>
+                <c:pt idx="1195">
+                  <c:v>0.82986111111111116</c:v>
+                </c:pt>
+                <c:pt idx="1196">
+                  <c:v>0.8305555555555556</c:v>
+                </c:pt>
+                <c:pt idx="1197">
+                  <c:v>0.83124999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1198">
+                  <c:v>0.83194444444444438</c:v>
+                </c:pt>
+                <c:pt idx="1199">
+                  <c:v>0.83263888888888893</c:v>
+                </c:pt>
+                <c:pt idx="1200">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="1201">
+                  <c:v>0.8340277777777777</c:v>
+                </c:pt>
+                <c:pt idx="1202">
+                  <c:v>0.83472222222222225</c:v>
+                </c:pt>
+                <c:pt idx="1203">
+                  <c:v>0.8354166666666667</c:v>
+                </c:pt>
+                <c:pt idx="1204">
+                  <c:v>0.83611111111111114</c:v>
+                </c:pt>
+                <c:pt idx="1205">
+                  <c:v>0.83680555555555547</c:v>
+                </c:pt>
+                <c:pt idx="1206">
+                  <c:v>0.83750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1207">
+                  <c:v>0.83819444444444446</c:v>
+                </c:pt>
+                <c:pt idx="1208">
+                  <c:v>0.83888888888888891</c:v>
+                </c:pt>
+                <c:pt idx="1209">
+                  <c:v>0.83958333333333324</c:v>
+                </c:pt>
+                <c:pt idx="1210">
+                  <c:v>0.84027777777777779</c:v>
+                </c:pt>
+                <c:pt idx="1211">
+                  <c:v>0.84097222222222223</c:v>
+                </c:pt>
+                <c:pt idx="1212">
+                  <c:v>0.84166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1213">
+                  <c:v>0.84236111111111101</c:v>
+                </c:pt>
+                <c:pt idx="1214">
+                  <c:v>0.84305555555555556</c:v>
+                </c:pt>
+                <c:pt idx="1215">
+                  <c:v>0.84375</c:v>
+                </c:pt>
+                <c:pt idx="1216">
+                  <c:v>0.84444444444444444</c:v>
+                </c:pt>
+                <c:pt idx="1217">
+                  <c:v>0.84513888888888899</c:v>
+                </c:pt>
+                <c:pt idx="1218">
+                  <c:v>0.84583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1219">
+                  <c:v>0.84652777777777777</c:v>
+                </c:pt>
+                <c:pt idx="1220">
+                  <c:v>0.84722222222222221</c:v>
+                </c:pt>
+                <c:pt idx="1221">
+                  <c:v>0.84791666666666676</c:v>
+                </c:pt>
+                <c:pt idx="1222">
+                  <c:v>0.84861111111111109</c:v>
+                </c:pt>
+                <c:pt idx="1223">
+                  <c:v>0.84930555555555554</c:v>
+                </c:pt>
+                <c:pt idx="1224">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="1225">
+                  <c:v>0.85069444444444453</c:v>
+                </c:pt>
+                <c:pt idx="1226">
+                  <c:v>0.85138888888888886</c:v>
+                </c:pt>
+                <c:pt idx="1227">
+                  <c:v>0.8520833333333333</c:v>
+                </c:pt>
+                <c:pt idx="1228">
+                  <c:v>0.85277777777777775</c:v>
+                </c:pt>
+                <c:pt idx="1229">
+                  <c:v>0.8534722222222223</c:v>
+                </c:pt>
+                <c:pt idx="1230">
+                  <c:v>0.85416666666666663</c:v>
+                </c:pt>
+                <c:pt idx="1231">
+                  <c:v>0.85486111111111107</c:v>
+                </c:pt>
+                <c:pt idx="1232">
+                  <c:v>0.85555555555555562</c:v>
+                </c:pt>
+                <c:pt idx="1233">
+                  <c:v>0.85625000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1234">
+                  <c:v>0.8569444444444444</c:v>
+                </c:pt>
+                <c:pt idx="1235">
+                  <c:v>0.85763888888888884</c:v>
+                </c:pt>
+                <c:pt idx="1236">
+                  <c:v>0.85833333333333339</c:v>
+                </c:pt>
+                <c:pt idx="1237">
+                  <c:v>0.85902777777777783</c:v>
+                </c:pt>
+                <c:pt idx="1238">
+                  <c:v>0.85972222222222217</c:v>
+                </c:pt>
+                <c:pt idx="1239">
+                  <c:v>0.86041666666666661</c:v>
+                </c:pt>
+                <c:pt idx="1240">
+                  <c:v>0.86111111111111116</c:v>
+                </c:pt>
+                <c:pt idx="1241">
+                  <c:v>0.8618055555555556</c:v>
+                </c:pt>
+                <c:pt idx="1242">
+                  <c:v>0.86249999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1243">
+                  <c:v>0.86319444444444438</c:v>
+                </c:pt>
+                <c:pt idx="1244">
+                  <c:v>0.86388888888888893</c:v>
+                </c:pt>
+                <c:pt idx="1245">
+                  <c:v>0.86458333333333337</c:v>
+                </c:pt>
+                <c:pt idx="1246">
+                  <c:v>0.8652777777777777</c:v>
+                </c:pt>
+                <c:pt idx="1247">
+                  <c:v>0.86597222222222225</c:v>
+                </c:pt>
+                <c:pt idx="1248">
+                  <c:v>0.8666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1249">
+                  <c:v>0.86736111111111114</c:v>
+                </c:pt>
+                <c:pt idx="1250">
+                  <c:v>0.86805555555555547</c:v>
+                </c:pt>
+                <c:pt idx="1251">
+                  <c:v>0.86875000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1252">
+                  <c:v>0.86944444444444446</c:v>
+                </c:pt>
+                <c:pt idx="1253">
+                  <c:v>0.87013888888888891</c:v>
+                </c:pt>
+                <c:pt idx="1254">
+                  <c:v>0.87083333333333324</c:v>
+                </c:pt>
+                <c:pt idx="1255">
+                  <c:v>0.87152777777777779</c:v>
+                </c:pt>
+                <c:pt idx="1256">
+                  <c:v>0.87222222222222223</c:v>
+                </c:pt>
+                <c:pt idx="1257">
+                  <c:v>0.87291666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1258">
+                  <c:v>0.87361111111111101</c:v>
+                </c:pt>
+                <c:pt idx="1259">
+                  <c:v>0.87430555555555556</c:v>
+                </c:pt>
+                <c:pt idx="1260">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="1261">
+                  <c:v>0.87569444444444444</c:v>
+                </c:pt>
+                <c:pt idx="1262">
+                  <c:v>0.87638888888888899</c:v>
+                </c:pt>
+                <c:pt idx="1263">
+                  <c:v>0.87708333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1264">
+                  <c:v>0.87777777777777777</c:v>
+                </c:pt>
+                <c:pt idx="1265">
+                  <c:v>0.87847222222222221</c:v>
+                </c:pt>
+                <c:pt idx="1266">
+                  <c:v>0.87916666666666676</c:v>
+                </c:pt>
+                <c:pt idx="1267">
+                  <c:v>0.87986111111111109</c:v>
+                </c:pt>
+                <c:pt idx="1268">
+                  <c:v>0.88055555555555554</c:v>
+                </c:pt>
+                <c:pt idx="1269">
+                  <c:v>0.88124999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1270">
+                  <c:v>0.88194444444444453</c:v>
+                </c:pt>
+                <c:pt idx="1271">
+                  <c:v>0.88263888888888886</c:v>
+                </c:pt>
+                <c:pt idx="1272">
+                  <c:v>0.8833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1273">
+                  <c:v>0.88402777777777775</c:v>
+                </c:pt>
+                <c:pt idx="1274">
+                  <c:v>0.8847222222222223</c:v>
+                </c:pt>
+                <c:pt idx="1275">
+                  <c:v>0.88541666666666663</c:v>
+                </c:pt>
+                <c:pt idx="1276">
+                  <c:v>0.88611111111111107</c:v>
+                </c:pt>
+                <c:pt idx="1277">
+                  <c:v>0.88680555555555562</c:v>
+                </c:pt>
+                <c:pt idx="1278">
+                  <c:v>0.88750000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1279">
+                  <c:v>0.8881944444444444</c:v>
+                </c:pt>
+                <c:pt idx="1280">
+                  <c:v>0.88888888888888884</c:v>
+                </c:pt>
+                <c:pt idx="1281">
+                  <c:v>0.88958333333333339</c:v>
+                </c:pt>
+                <c:pt idx="1282">
+                  <c:v>0.89027777777777783</c:v>
+                </c:pt>
+                <c:pt idx="1283">
+                  <c:v>0.89097222222222217</c:v>
+                </c:pt>
+                <c:pt idx="1284">
+                  <c:v>0.89166666666666661</c:v>
+                </c:pt>
+                <c:pt idx="1285">
+                  <c:v>0.89236111111111116</c:v>
+                </c:pt>
+                <c:pt idx="1286">
+                  <c:v>0.8930555555555556</c:v>
+                </c:pt>
+                <c:pt idx="1287">
+                  <c:v>0.89374999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1288">
+                  <c:v>0.89444444444444438</c:v>
+                </c:pt>
+                <c:pt idx="1289">
+                  <c:v>0.89513888888888893</c:v>
+                </c:pt>
+                <c:pt idx="1290">
+                  <c:v>0.89583333333333337</c:v>
+                </c:pt>
+                <c:pt idx="1291">
+                  <c:v>0.8965277777777777</c:v>
+                </c:pt>
+                <c:pt idx="1292">
+                  <c:v>0.89722222222222225</c:v>
+                </c:pt>
+                <c:pt idx="1293">
+                  <c:v>0.8979166666666667</c:v>
+                </c:pt>
+                <c:pt idx="1294">
+                  <c:v>0.89861111111111114</c:v>
+                </c:pt>
+                <c:pt idx="1295">
+                  <c:v>0.89930555555555547</c:v>
+                </c:pt>
+                <c:pt idx="1296">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1297">
+                  <c:v>0.90069444444444446</c:v>
+                </c:pt>
+                <c:pt idx="1298">
+                  <c:v>0.90138888888888891</c:v>
+                </c:pt>
+                <c:pt idx="1299">
+                  <c:v>0.90208333333333324</c:v>
+                </c:pt>
+                <c:pt idx="1300">
+                  <c:v>0.90277777777777779</c:v>
+                </c:pt>
+                <c:pt idx="1301">
+                  <c:v>0.90347222222222223</c:v>
+                </c:pt>
+                <c:pt idx="1302">
+                  <c:v>0.90416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1303">
+                  <c:v>0.90486111111111101</c:v>
+                </c:pt>
+                <c:pt idx="1304">
+                  <c:v>0.90555555555555556</c:v>
+                </c:pt>
+                <c:pt idx="1305">
+                  <c:v>0.90625</c:v>
+                </c:pt>
+                <c:pt idx="1306">
+                  <c:v>0.90694444444444444</c:v>
+                </c:pt>
+                <c:pt idx="1307">
+                  <c:v>0.90763888888888899</c:v>
+                </c:pt>
+                <c:pt idx="1308">
+                  <c:v>0.90833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1309">
+                  <c:v>0.90902777777777777</c:v>
+                </c:pt>
+                <c:pt idx="1310">
+                  <c:v>0.90972222222222221</c:v>
+                </c:pt>
+                <c:pt idx="1311">
+                  <c:v>0.91041666666666676</c:v>
+                </c:pt>
+                <c:pt idx="1312">
+                  <c:v>0.91111111111111109</c:v>
+                </c:pt>
+                <c:pt idx="1313">
+                  <c:v>0.91180555555555554</c:v>
+                </c:pt>
+                <c:pt idx="1314">
+                  <c:v>0.91249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1315">
+                  <c:v>0.91319444444444453</c:v>
+                </c:pt>
+                <c:pt idx="1316">
+                  <c:v>0.91388888888888886</c:v>
+                </c:pt>
+                <c:pt idx="1317">
+                  <c:v>0.9145833333333333</c:v>
+                </c:pt>
+                <c:pt idx="1318">
+                  <c:v>0.91527777777777775</c:v>
+                </c:pt>
+                <c:pt idx="1319">
+                  <c:v>0.9159722222222223</c:v>
+                </c:pt>
+                <c:pt idx="1320">
+                  <c:v>0.91666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="1321">
+                  <c:v>0.91736111111111107</c:v>
+                </c:pt>
+                <c:pt idx="1322">
+                  <c:v>0.91805555555555562</c:v>
+                </c:pt>
+                <c:pt idx="1323">
+                  <c:v>0.91875000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1324">
+                  <c:v>0.9194444444444444</c:v>
+                </c:pt>
+                <c:pt idx="1325">
+                  <c:v>0.92013888888888884</c:v>
+                </c:pt>
+                <c:pt idx="1326">
+                  <c:v>0.92083333333333339</c:v>
+                </c:pt>
+                <c:pt idx="1327">
+                  <c:v>0.92152777777777783</c:v>
+                </c:pt>
+                <c:pt idx="1328">
+                  <c:v>0.92222222222222217</c:v>
+                </c:pt>
+                <c:pt idx="1329">
+                  <c:v>0.92291666666666661</c:v>
+                </c:pt>
+                <c:pt idx="1330">
+                  <c:v>0.92361111111111116</c:v>
+                </c:pt>
+                <c:pt idx="1331">
+                  <c:v>0.9243055555555556</c:v>
+                </c:pt>
+                <c:pt idx="1332">
+                  <c:v>0.92499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1333">
+                  <c:v>0.92569444444444438</c:v>
+                </c:pt>
+                <c:pt idx="1334">
+                  <c:v>0.92638888888888893</c:v>
+                </c:pt>
+                <c:pt idx="1335">
+                  <c:v>0.92708333333333337</c:v>
+                </c:pt>
+                <c:pt idx="1336">
+                  <c:v>0.9277777777777777</c:v>
+                </c:pt>
+                <c:pt idx="1337">
+                  <c:v>0.92847222222222225</c:v>
+                </c:pt>
+                <c:pt idx="1338">
+                  <c:v>0.9291666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1339">
+                  <c:v>0.92986111111111114</c:v>
+                </c:pt>
+                <c:pt idx="1340">
+                  <c:v>0.93055555555555547</c:v>
+                </c:pt>
+                <c:pt idx="1341">
+                  <c:v>0.93125000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1342">
+                  <c:v>0.93194444444444446</c:v>
+                </c:pt>
+                <c:pt idx="1343">
+                  <c:v>0.93263888888888891</c:v>
+                </c:pt>
+                <c:pt idx="1344">
+                  <c:v>0.93333333333333324</c:v>
+                </c:pt>
+                <c:pt idx="1345">
+                  <c:v>0.93402777777777779</c:v>
+                </c:pt>
+                <c:pt idx="1346">
+                  <c:v>0.93472222222222223</c:v>
+                </c:pt>
+                <c:pt idx="1347">
+                  <c:v>0.93541666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1348">
+                  <c:v>0.93611111111111101</c:v>
+                </c:pt>
+                <c:pt idx="1349">
+                  <c:v>0.93680555555555556</c:v>
+                </c:pt>
+                <c:pt idx="1350">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="1351">
+                  <c:v>0.93819444444444444</c:v>
+                </c:pt>
+                <c:pt idx="1352">
+                  <c:v>0.93888888888888899</c:v>
+                </c:pt>
+                <c:pt idx="1353">
+                  <c:v>0.93958333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1354">
+                  <c:v>0.94027777777777777</c:v>
+                </c:pt>
+                <c:pt idx="1355">
+                  <c:v>0.94097222222222221</c:v>
+                </c:pt>
+                <c:pt idx="1356">
+                  <c:v>0.94166666666666676</c:v>
+                </c:pt>
+                <c:pt idx="1357">
+                  <c:v>0.94236111111111109</c:v>
+                </c:pt>
+                <c:pt idx="1358">
+                  <c:v>0.94305555555555554</c:v>
+                </c:pt>
+                <c:pt idx="1359">
+                  <c:v>0.94374999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1360">
+                  <c:v>0.94444444444444453</c:v>
+                </c:pt>
+                <c:pt idx="1361">
+                  <c:v>0.94513888888888886</c:v>
+                </c:pt>
+                <c:pt idx="1362">
+                  <c:v>0.9458333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1363">
+                  <c:v>0.94652777777777775</c:v>
+                </c:pt>
+                <c:pt idx="1364">
+                  <c:v>0.9472222222222223</c:v>
+                </c:pt>
+                <c:pt idx="1365">
+                  <c:v>0.94791666666666663</c:v>
+                </c:pt>
+                <c:pt idx="1366">
+                  <c:v>0.94861111111111107</c:v>
+                </c:pt>
+                <c:pt idx="1367">
+                  <c:v>0.94930555555555562</c:v>
+                </c:pt>
+                <c:pt idx="1368">
+                  <c:v>0.95000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1369">
+                  <c:v>0.9506944444444444</c:v>
+                </c:pt>
+                <c:pt idx="1370">
+                  <c:v>0.95138888888888884</c:v>
+                </c:pt>
+                <c:pt idx="1371">
+                  <c:v>0.95208333333333339</c:v>
+                </c:pt>
+                <c:pt idx="1372">
+                  <c:v>0.95277777777777783</c:v>
+                </c:pt>
+                <c:pt idx="1373">
+                  <c:v>0.95347222222222217</c:v>
+                </c:pt>
+                <c:pt idx="1374">
+                  <c:v>0.95416666666666661</c:v>
+                </c:pt>
+                <c:pt idx="1375">
+                  <c:v>0.95486111111111116</c:v>
+                </c:pt>
+                <c:pt idx="1376">
+                  <c:v>0.9555555555555556</c:v>
+                </c:pt>
+                <c:pt idx="1377">
+                  <c:v>0.95624999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1378">
+                  <c:v>0.95694444444444438</c:v>
+                </c:pt>
+                <c:pt idx="1379">
+                  <c:v>0.95763888888888893</c:v>
+                </c:pt>
+                <c:pt idx="1380">
+                  <c:v>0.95833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="1381">
+                  <c:v>0.9590277777777777</c:v>
+                </c:pt>
+                <c:pt idx="1382">
+                  <c:v>0.95972222222222225</c:v>
+                </c:pt>
+                <c:pt idx="1383">
+                  <c:v>0.9604166666666667</c:v>
+                </c:pt>
+                <c:pt idx="1384">
+                  <c:v>0.96111111111111114</c:v>
+                </c:pt>
+                <c:pt idx="1385">
+                  <c:v>0.96180555555555547</c:v>
+                </c:pt>
+                <c:pt idx="1386">
+                  <c:v>0.96250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1387">
+                  <c:v>0.96319444444444446</c:v>
+                </c:pt>
+                <c:pt idx="1388">
+                  <c:v>0.96388888888888891</c:v>
+                </c:pt>
+                <c:pt idx="1389">
+                  <c:v>0.96458333333333324</c:v>
+                </c:pt>
+                <c:pt idx="1390">
+                  <c:v>0.96527777777777779</c:v>
+                </c:pt>
+                <c:pt idx="1391">
+                  <c:v>0.96597222222222223</c:v>
+                </c:pt>
+                <c:pt idx="1392">
+                  <c:v>0.96666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1393">
+                  <c:v>0.96736111111111101</c:v>
+                </c:pt>
+                <c:pt idx="1394">
+                  <c:v>0.96805555555555556</c:v>
+                </c:pt>
+                <c:pt idx="1395">
+                  <c:v>0.96875</c:v>
+                </c:pt>
+                <c:pt idx="1396">
+                  <c:v>0.96944444444444444</c:v>
+                </c:pt>
+                <c:pt idx="1397">
+                  <c:v>0.97013888888888899</c:v>
+                </c:pt>
+                <c:pt idx="1398">
+                  <c:v>0.97083333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1399">
+                  <c:v>0.97152777777777777</c:v>
+                </c:pt>
+                <c:pt idx="1400">
+                  <c:v>0.97222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="1401">
+                  <c:v>0.97291666666666676</c:v>
+                </c:pt>
+                <c:pt idx="1402">
+                  <c:v>0.97361111111111109</c:v>
+                </c:pt>
+                <c:pt idx="1403">
+                  <c:v>0.97430555555555554</c:v>
+                </c:pt>
+                <c:pt idx="1404">
+                  <c:v>0.97499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1405">
+                  <c:v>0.97569444444444453</c:v>
+                </c:pt>
+                <c:pt idx="1406">
+                  <c:v>0.97638888888888886</c:v>
+                </c:pt>
+                <c:pt idx="1407">
+                  <c:v>0.9770833333333333</c:v>
+                </c:pt>
+                <c:pt idx="1408">
+                  <c:v>0.97777777777777775</c:v>
+                </c:pt>
+                <c:pt idx="1409">
+                  <c:v>0.9784722222222223</c:v>
+                </c:pt>
+                <c:pt idx="1410">
+                  <c:v>0.97916666666666663</c:v>
+                </c:pt>
+                <c:pt idx="1411">
+                  <c:v>0.97986111111111107</c:v>
+                </c:pt>
+                <c:pt idx="1412">
+                  <c:v>0.98055555555555562</c:v>
+                </c:pt>
+                <c:pt idx="1413">
+                  <c:v>0.98125000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1414">
+                  <c:v>0.9819444444444444</c:v>
+                </c:pt>
+                <c:pt idx="1415">
+                  <c:v>0.98263888888888884</c:v>
+                </c:pt>
+                <c:pt idx="1416">
+                  <c:v>0.98333333333333339</c:v>
+                </c:pt>
+                <c:pt idx="1417">
+                  <c:v>0.98402777777777783</c:v>
+                </c:pt>
+                <c:pt idx="1418">
+                  <c:v>0.98472222222222217</c:v>
+                </c:pt>
+                <c:pt idx="1419">
+                  <c:v>0.98541666666666661</c:v>
+                </c:pt>
+                <c:pt idx="1420">
+                  <c:v>0.98611111111111116</c:v>
+                </c:pt>
+                <c:pt idx="1421">
+                  <c:v>0.9868055555555556</c:v>
+                </c:pt>
+                <c:pt idx="1422">
+                  <c:v>0.98749999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1423">
+                  <c:v>0.98819444444444438</c:v>
+                </c:pt>
+                <c:pt idx="1424">
+                  <c:v>0.98888888888888893</c:v>
+                </c:pt>
+                <c:pt idx="1425">
+                  <c:v>0.98958333333333337</c:v>
+                </c:pt>
+                <c:pt idx="1426">
+                  <c:v>0.9902777777777777</c:v>
+                </c:pt>
+                <c:pt idx="1427">
+                  <c:v>0.99097222222222225</c:v>
+                </c:pt>
+                <c:pt idx="1428">
+                  <c:v>0.9916666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1429">
+                  <c:v>0.99236111111111114</c:v>
+                </c:pt>
+                <c:pt idx="1430">
+                  <c:v>0.99305555555555547</c:v>
+                </c:pt>
+                <c:pt idx="1431">
+                  <c:v>0.99375000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1432">
+                  <c:v>0.99444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="1433">
+                  <c:v>0.99513888888888891</c:v>
+                </c:pt>
+                <c:pt idx="1434">
+                  <c:v>0.99583333333333324</c:v>
+                </c:pt>
+                <c:pt idx="1435">
+                  <c:v>0.99652777777777779</c:v>
+                </c:pt>
+                <c:pt idx="1436">
+                  <c:v>0.99722222222222223</c:v>
+                </c:pt>
+                <c:pt idx="1437">
+                  <c:v>0.99791666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1438">
+                  <c:v>0.99861111111111101</c:v>
+                </c:pt>
+                <c:pt idx="1439">
+                  <c:v>0.99930555555555556</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MinuteSleep!$B$2:$B$1441</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1440"/>
+                <c:pt idx="0">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="716">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="724">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="725">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="726">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="727">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="728">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="729">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="730">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="731">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="732">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="733">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="734">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="735">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="736">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="737">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="738">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="739">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="740">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="741">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="742">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="743">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="744">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="745">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="746">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="747">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="748">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="749">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="750">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="751">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="752">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="753">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="754">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="755">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="756">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="757">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="758">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="759">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="760">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="761">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="762">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="763">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="764">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="765">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="766">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="767">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="768">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="769">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="770">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="771">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="772">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="773">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="774">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="775">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="776">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="777">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="778">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="779">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="780">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="781">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="782">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="783">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="784">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="785">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="786">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="787">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="788">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="789">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="790">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="791">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="792">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="793">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="794">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="795">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="796">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="797">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="798">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="799">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="800">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="801">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="802">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="803">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="804">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="805">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="806">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="807">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="808">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="809">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="810">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="811">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="812">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="813">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="814">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="815">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="816">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="817">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="818">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="819">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="820">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="821">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="822">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="823">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="824">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="825">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="826">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="827">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="828">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="829">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="830">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="831">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="832">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="833">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="834">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="835">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="836">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="837">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="838">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="839">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="840">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="841">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="842">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="843">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="844">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="845">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="846">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="847">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="848">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="849">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="850">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="851">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="852">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="853">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="854">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="855">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="856">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="857">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="858">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="859">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="860">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="861">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="862">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="863">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="864">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="865">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="866">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="867">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="868">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="869">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="870">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="871">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="872">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="873">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="874">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="875">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="876">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="877">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="878">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="879">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="880">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="881">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="882">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="883">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="884">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="885">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="886">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="887">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="888">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="889">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="890">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="891">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="892">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="893">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="894">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="895">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="896">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="897">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="898">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="899">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="900">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="901">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="902">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="903">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="904">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="905">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="906">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="907">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="908">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="909">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="910">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="911">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="912">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="913">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="914">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="915">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="916">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="917">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="918">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="919">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="920">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="921">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="922">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="923">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="924">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="925">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="926">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="927">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="928">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="929">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="930">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="931">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="932">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="933">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="934">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="935">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="936">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="937">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="938">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="939">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="940">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="941">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="942">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="943">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="944">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="945">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="946">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="947">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="948">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="949">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="950">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="951">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="952">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="953">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="954">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="955">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="956">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="957">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="958">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="959">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="960">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="961">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="962">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="963">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="964">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="965">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="966">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="967">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="968">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="969">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="970">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="971">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="972">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="973">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="974">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="975">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="976">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="977">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="978">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="979">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="980">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="981">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="982">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="983">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="984">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="985">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="986">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="987">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="988">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="989">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="990">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="991">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="992">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="993">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="994">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="995">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="996">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="997">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="998">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="999">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1000">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1001">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1002">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1003">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1004">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1005">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1006">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1007">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1008">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1009">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1010">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1011">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1012">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1013">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1014">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1015">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1016">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1017">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1018">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1019">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1020">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1021">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1022">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1023">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1024">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1025">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1026">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1027">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1028">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1029">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1030">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1031">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1032">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1033">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1034">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1035">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1036">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1037">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1038">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1039">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1040">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1041">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1042">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1043">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1044">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1045">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1046">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1047">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1048">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1049">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1050">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1051">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1052">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1053">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1054">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1055">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1056">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1057">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1058">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1059">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1060">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1061">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1062">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1063">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1064">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1065">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1066">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1067">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1068">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1069">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1070">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1071">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1072">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1073">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1074">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1075">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1076">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1077">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1078">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1079">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1080">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1081">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1082">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1083">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1084">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1085">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1086">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1087">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1088">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1089">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1090">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1091">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1092">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1093">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1094">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1095">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1096">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1097">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1098">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1099">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1100">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1101">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1102">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1103">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1104">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1105">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1106">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1107">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1108">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1109">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1110">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1111">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1112">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1113">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1114">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1115">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1116">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1117">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1118">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1119">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1120">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1121">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1122">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1123">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1124">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1125">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1126">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1127">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1128">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1129">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1130">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1131">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1132">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1133">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1134">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1135">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1136">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1137">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1138">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1139">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1140">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1141">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1142">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1143">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1144">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1145">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1146">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1147">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1148">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1149">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1150">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1151">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1152">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1153">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1154">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1155">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1156">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1157">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1158">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1159">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1160">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1161">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1162">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1163">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1164">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1165">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1166">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1167">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1168">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1169">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1170">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1171">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1172">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1173">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1174">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1175">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1176">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1177">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1178">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1179">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1180">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1181">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1182">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1183">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1184">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1185">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1186">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1187">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1188">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1189">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1190">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1191">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1192">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1193">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1194">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1195">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1196">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1197">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1198">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1199">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1200">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1201">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1202">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1203">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1204">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1205">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1206">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1207">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1208">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1209">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1210">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1211">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1212">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1213">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1214">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1215">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1216">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1217">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1218">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1219">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1220">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1221">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1222">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1223">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1224">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1225">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1226">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1227">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1228">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1229">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1230">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1231">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1232">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1233">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1234">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1235">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1236">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1237">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1238">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1239">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1240">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1241">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1242">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1243">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1244">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1245">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1246">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1247">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1248">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1249">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1250">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1251">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1252">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1253">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1254">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1255">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1256">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1257">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1258">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1259">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1260">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1261">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1262">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1263">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1264">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1265">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1266">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1267">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1268">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="1269">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1270">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1271">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1272">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1273">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="1274">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="1275">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="1276">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="1277">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="1278">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="1279">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="1280">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="1281">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1282">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="1283">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="1284">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="1285">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="1286">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="1287">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="1288">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="1289">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="1290">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="1291">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="1292">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1293">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="1294">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="1295">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="1296">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="1297">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="1298">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="1299">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="1300">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="1301">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="1302">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="1303">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="1304">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="1305">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="1306">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1307">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1308">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1309">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="1310">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="1311">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="1312">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="1313">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="1314">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="1315">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="1316">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1317">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1318">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="1319">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="1320">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="1321">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="1322">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="1323">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1324">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="1325">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="1326">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1327">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1328">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="1329">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="1330">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="1331">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="1332">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="1333">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="1334">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="1335">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="1336">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1337">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="1338">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="1339">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="1340">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="1341">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="1342">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="1343">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="1344">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="1345">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1346">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="1347">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="1348">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="1349">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="1350">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="1351">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="1352">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="1353">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="1354">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="1355">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="1356">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1357">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1358">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="1359">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="1360">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="1361">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="1362">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="1363">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="1364">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="1365">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="1366">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="1367">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="1368">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="1369">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="1370">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="1371">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="1372">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="1373">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="1374">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="1375">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="1376">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="1377">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="1378">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="1379">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="1380">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="1381">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="1382">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="1383">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="1384">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="1385">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="1386">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="1387">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="1388">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="1389">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="1390">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1391">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1392">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="1393">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="1394">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="1395">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="1396">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="1397">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="1398">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="1399">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="1400">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="1401">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="1402">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="1403">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="1404">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="1405">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="1406">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="1407">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="1408">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="1409">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="1410">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="1411">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="1412">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="1413">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="1414">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="1415">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="1416">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="1417">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="1418">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="1419">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="1420">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="1421">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="1422">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="1423">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="1424">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="1425">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="1426">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="1427">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="1428">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="1429">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="1430">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="1431">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="1432">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="1433">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="1434">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="1435">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="1436">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="1437">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="1438">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="1439">
+                  <c:v>186</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8479-448B-9FDB-878929DB8ED7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="444765328"/>
+        <c:axId val="444760408"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="444765328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444760408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="444760408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444765328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>1357</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>1372</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F117024-D79F-429C-AB6B-1C101A3191C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -585,7 +10110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -784,8 +10309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC539F1-C337-4101-BB2A-66BD75DE37BB}">
   <dimension ref="A1:C1441"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A1352" workbookViewId="0">
+      <selection activeCell="F1363" sqref="F1363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12320,7 +21845,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
